--- a/data/trans_dic/P18_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>70,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>75,61%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>74,74%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>67,58%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>69,69%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>64,55%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,53</t>
+          <t>78,58; 84,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,21</t>
+          <t>78,72; 85,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,92</t>
+          <t>74,62; 82,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 24,12</t>
+          <t>76,09; 82,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,22; 31,56</t>
+          <t>61,54; 74,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,58</t>
+          <t>68,11; 75,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 26,67</t>
+          <t>63,22; 71,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,07</t>
+          <t>70,04; 76,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 32,9</t>
+          <t>74,05; 80,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,09</t>
+          <t>69,09; 75,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 24,58</t>
+          <t>66,71; 73,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 23,34</t>
+          <t>61,67; 69,69</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,43</t>
+          <t>63,58; 71,0</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 27,5</t>
+          <t>58,53; 65,18</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,89; 32,91</t>
+          <t>75,02; 79,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>77,14; 81,64</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>73,15; 78,0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>72,22; 77,07</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>63,49; 70,7</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>66,95; 72,07</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>62,03; 67,1</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>67,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>80,1%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>81,31%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>76,32%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>72,34%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>67,14%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 21,01</t>
+          <t>78,88; 86,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 22,93</t>
+          <t>79,98; 88,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 25,95</t>
+          <t>74,3; 82,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,33</t>
+          <t>72,51; 82,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 36,9</t>
+          <t>69,98; 80,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 26,92</t>
+          <t>62,88; 75,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 25,96</t>
+          <t>62,02; 73,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,69; 30,04</t>
+          <t>73,38; 80,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,72; 35,5</t>
+          <t>73,78; 81,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,69; 43,38</t>
+          <t>69,36; 77,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,56</t>
+          <t>63,79; 71,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 22,87</t>
+          <t>64,85; 73,58</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,22; 26,62</t>
+          <t>57,19; 71,78</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 29,63</t>
+          <t>57,66; 70,55</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 38,17</t>
+          <t>77,4; 82,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78,42; 83,97</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>73,35; 78,95</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>69,53; 75,72</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>68,41; 75,26</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>62,08; 71,3</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>62,01; 70,7</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>75,03%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>77,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>72,62%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,14%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>21,9%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>82,86%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>84,0%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>78,21%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>77,31%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,85</t>
+          <t>76,54; 89,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 21,15</t>
+          <t>79,11; 91,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 32,6</t>
+          <t>68,19; 86,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 25,36</t>
+          <t>73,51; 87,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>57,34; 84,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>12,62; 24,46</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 27,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 29,99</t>
+          <t>75,0; 87,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,76; 34,44</t>
+          <t>74,16; 87,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>70,08; 83,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>64,44; 79,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56,21; 75,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 22,01</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>11,69; 21,58</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 27,59</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 27,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78,11; 86,6</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>78,77; 87,93</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>71,77; 83,21</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>72,21; 81,79</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>61,83; 77,47</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>67,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>79,21%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>80,82%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>76,19%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>74,31%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>69,83%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>69,11%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>64,95%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 19,44</t>
+          <t>80,39; 84,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,78</t>
+          <t>81,14; 86,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,36</t>
+          <t>76,32; 81,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,11</t>
+          <t>76,42; 81,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 31,71</t>
+          <t>68,2; 76,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,33</t>
+          <t>68,36; 74,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 24,72</t>
+          <t>64,24; 70,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 28,68</t>
+          <t>73,69; 78,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,4</t>
+          <t>75,5; 80,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,48; 36,55</t>
+          <t>71,04; 75,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,47</t>
+          <t>67,14; 71,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 21,55</t>
+          <t>64,18; 69,82</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,92; 25,51</t>
+          <t>63,61; 69,75</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,51; 26,98</t>
+          <t>59,42; 65,25</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 33,05</t>
+          <t>77,52; 80,78</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>78,89; 82,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>74,07; 77,86</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>72,43; 76,12</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>67,17; 72,32</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>66,94; 71,18</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 67,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>590.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>608.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>578.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1140.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1154.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1147.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>804.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1079.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1343218</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1349335</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1305438</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1306388</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1137637</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>165538</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>153009</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1315543</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1391141</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1321418</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1267973</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1184193</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>146356</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2658761</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2740477</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2626856</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2574362</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2321829</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>325265</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>299365</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1286997; 1390141</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1290180; 1402681</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1227752; 1358776</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1245289; 1358181</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1005918; 1209606</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>156286; 173130</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>143985; 161758</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1252856; 1367543</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1334070; 1448798</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1263556; 1373478</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1206094; 1322476</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1110556; 1254946</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>150857; 168474</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>138149; 153841</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2570686; 2727211</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2654278; 2809100</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2541438; 2710014</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2487769; 2654750</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2180999; 2428690</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>312483; 336407</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>287692; 311187</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>947.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>901.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>860.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>679.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1150248</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1162804</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1089754</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1075447</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1048718</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50483</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49776</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1086425</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1079502</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1004428</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>936457</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>951363</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>42076</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43152</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2236673</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2242306</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2094182</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2011905</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2000080</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>92559</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>92928</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1091879; 1191844</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1094907; 1216079</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1021195; 1140527</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1001704; 1136219</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>969497; 1111350</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45455; 54907</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45442; 53951</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1033124; 1134586</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1024671; 1128119</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>949843; 1055127</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>879874; 989187</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>894659; 1015119</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>37498; 47062</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38589; 47212</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2161226; 2301575</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2162698; 2315725</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2012462; 2166176</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1919607; 2090414</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1891395; 2080900</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>85585; 98290</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>86936; 99110</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>354296</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>364104</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>327836</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>342835</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>317255</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>337326</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>335501</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316834</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>297652</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>273064</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>691622</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>699606</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>644669</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>640487</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>590319</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>323624; 377093</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>334468; 387164</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>282761; 357482</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>307676; 367955</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>242453; 356841</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>308919; 360692</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>304110; 359069</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>287044; 341001</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>264115; 324146</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>231535; 309538</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>651992; 722818</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>656050; 732378</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>591610; 685854</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>598206; 677570</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>516120; 646673</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1091.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1223.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1052.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1218.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1163.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>739.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2023.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2309.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2245.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1648.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1408.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2847762</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2876244</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2723029</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2724671</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2503609</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>216021</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>202785</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2739294</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2806145</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2642679</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2502083</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2408619</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>201804</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>189508</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5587056</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5682388</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5365708</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5226754</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>4912228</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>417825</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>392293</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2769539; 2921165</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2783809; 2956026</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2621090; 2810870</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2626250; 2808020</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2347885; 2626004</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>206270; 225744</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>193375; 212406</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2659076; 2819844</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2718349; 2882945</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2562919; 2729993</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2415264; 2584971</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2305547; 2508201</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>192653; 211248</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>180028; 197676</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5467583; 5698017</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5546959; 5806235</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5216407; 5482835</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5094723; 5354406</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>4725290; 5087822</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>404733; 430381</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>379386; 406907</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
